--- a/races/OVCX_1_Carter Park.xlsx
+++ b/races/OVCX_1_Carter Park.xlsx
@@ -94,7 +94,7 @@
     <t>Jeffrey</t>
   </si>
   <si>
-    <t>Accurs</t>
+    <t>Accursi</t>
   </si>
   <si>
     <t>Campbell</t>
